--- a/reviews_analyzed_negative_proscons.xlsx
+++ b/reviews_analyzed_negative_proscons.xlsx
@@ -443,11 +443,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Häufige Stärken:
-- Kompetenz
-- Freundlichkeit
-- Empfehlenswert
-Häufige Schwächen:
+          <t>Stärken:
+- Kompetente Tierärzte
+- Freundliches Personal
+- Zuverlässige Behandlungen
+- Empfehlenswerte Praxis
+Schwächen:
 - Keine negativen Bewertungen vorhanden</t>
         </is>
       </c>

--- a/reviews_analyzed_negative_proscons.xlsx
+++ b/reviews_analyzed_negative_proscons.xlsx
@@ -444,12 +444,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Stärken:
-- Kompetente Tierärzte
-- Freundliches Personal
-- Zuverlässige Behandlungen
-- Empfehlenswerte Praxis
+- Kompetenz der Tierärzte
+- Freundlichkeit des Personals
+- Empfehlenswert
 Schwächen:
-- Keine negativen Bewertungen vorhanden</t>
+- Keine negative Bewertung gefunden</t>
         </is>
       </c>
     </row>
